--- a/output/1Y_P6_KFSDIV.xlsx
+++ b/output/1Y_P6_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>8.6477</v>
       </c>
       <c r="C2" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D2" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="F3" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="H3" s="1">
-        <v>11065.2543</v>
+        <v>11021.1194</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11065.2543</v>
+        <v>11021.1194</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1065</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E4" s="1">
-        <v>2201.429</v>
+        <v>2197.0276</v>
       </c>
       <c r="F4" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="H4" s="1">
-        <v>20758.155</v>
+        <v>20675.1282</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20758.155</v>
+        <v>20675.1282</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.085000000000001</v>
+        <v>9.103199999999999</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0146</v>
+        <v>-0.0165</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D5" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E5" s="1">
-        <v>3261.9419</v>
+        <v>3255.419</v>
       </c>
       <c r="F5" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="H5" s="1">
-        <v>31327.3639</v>
+        <v>31202.5405</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31327.3639</v>
+        <v>31202.5405</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.196999999999999</v>
+        <v>9.215400000000001</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0185</v>
+        <v>0.0172</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.3595</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E6" s="1">
-        <v>4303.1747</v>
+        <v>4294.5636</v>
       </c>
       <c r="F6" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="H6" s="1">
-        <v>44578.7386</v>
+        <v>44400.6344</v>
       </c>
       <c r="I6" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>44578.7386</v>
+        <v>44400.6344</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>9.295500000000001</v>
+        <v>9.3141</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.0875</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E7" s="1">
-        <v>5268.4723</v>
+        <v>5257.9269</v>
       </c>
       <c r="F7" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="H7" s="1">
-        <v>53145.7141</v>
+        <v>52933.1277</v>
       </c>
       <c r="I7" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>53145.7141</v>
+        <v>52933.1277</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>9.490399999999999</v>
+        <v>9.509499999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0263</v>
+        <v>-0.027</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>10.1692</v>
       </c>
       <c r="C8" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D8" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E8" s="1">
-        <v>6259.7982</v>
+        <v>6247.2717</v>
       </c>
       <c r="F8" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="H8" s="1">
-        <v>63657.1396</v>
+        <v>63402.9355</v>
       </c>
       <c r="I8" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>63657.1396</v>
+        <v>63402.9355</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>9.585000000000001</v>
+        <v>9.604200000000001</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1422.4875</v>
+        <v>1419.6403</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8577.512500000001</v>
+        <v>-8580.359700000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0081</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.0872</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E9" s="1">
-        <v>7243.1597</v>
+        <v>7228.6645</v>
       </c>
       <c r="F9" s="1">
-        <v>927.601</v>
+        <v>925.6961</v>
       </c>
       <c r="H9" s="1">
-        <v>80306.3602</v>
+        <v>79985.17230000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1422.4875</v>
+        <v>1419.6403</v>
       </c>
       <c r="J9" s="1">
-        <v>81728.8477</v>
+        <v>81404.8126</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>9.664300000000001</v>
+        <v>9.6837</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10284.4975</v>
+        <v>-10283.9281</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1096</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.0976</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D10" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E10" s="1">
-        <v>8170.7607</v>
+        <v>8154.3606</v>
       </c>
       <c r="F10" s="1">
-        <v>926.7317</v>
+        <v>924.8303</v>
       </c>
       <c r="H10" s="1">
-        <v>90675.8336</v>
+        <v>90312.8048</v>
       </c>
       <c r="I10" s="1">
-        <v>1137.99</v>
+        <v>1135.7122</v>
       </c>
       <c r="J10" s="1">
-        <v>91813.8236</v>
+        <v>91448.5171</v>
       </c>
       <c r="K10" s="1">
-        <v>80284.4975</v>
+        <v>80283.9281</v>
       </c>
       <c r="L10" s="1">
-        <v>9.825799999999999</v>
+        <v>9.845499999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10284.4975</v>
+        <v>-10283.9281</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0009</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>10.8505</v>
       </c>
       <c r="C11" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D11" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E11" s="1">
-        <v>9097.492399999999</v>
+        <v>9079.1909</v>
       </c>
       <c r="F11" s="1">
-        <v>947.8363000000001</v>
+        <v>945.8834000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>98712.34080000001</v>
+        <v>98316.742</v>
       </c>
       <c r="I11" s="1">
-        <v>853.4924999999999</v>
+        <v>851.7842000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>99565.8333</v>
+        <v>99168.5261</v>
       </c>
       <c r="K11" s="1">
-        <v>90568.995</v>
+        <v>90567.8561</v>
       </c>
       <c r="L11" s="1">
-        <v>9.955399999999999</v>
+        <v>9.975300000000001</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3676.8423</v>
+        <v>3669.4622</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6607.6552</v>
+        <v>-6614.4658</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0221</v>
+        <v>-0.0225</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.8576</v>
       </c>
       <c r="C12" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D12" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E12" s="1">
-        <v>10045.3286</v>
+        <v>10025.0743</v>
       </c>
       <c r="F12" s="1">
-        <v>1022.3754</v>
+        <v>1019.969</v>
       </c>
       <c r="H12" s="1">
-        <v>119113.4887</v>
+        <v>118635.7262</v>
       </c>
       <c r="I12" s="1">
-        <v>4245.8373</v>
+        <v>4237.3184</v>
       </c>
       <c r="J12" s="1">
-        <v>123359.326</v>
+        <v>122873.0446</v>
       </c>
       <c r="K12" s="1">
-        <v>100853.4925</v>
+        <v>100851.7842</v>
       </c>
       <c r="L12" s="1">
-        <v>10.0398</v>
+        <v>10.06</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12122.9187</v>
+        <v>-12118.6592</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1259</v>
+        <v>0.1255</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.5699</v>
       </c>
       <c r="C13" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D13" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E13" s="1">
-        <v>11067.704</v>
+        <v>11045.0432</v>
       </c>
       <c r="F13" s="1">
-        <v>964.4403</v>
+        <v>962.1725</v>
       </c>
       <c r="H13" s="1">
-        <v>139119.933</v>
+        <v>138557.8581</v>
       </c>
       <c r="I13" s="1">
-        <v>2122.9187</v>
+        <v>2118.6592</v>
       </c>
       <c r="J13" s="1">
-        <v>141242.8516</v>
+        <v>140676.5173</v>
       </c>
       <c r="K13" s="1">
-        <v>112976.4112</v>
+        <v>112970.4433</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2078</v>
+        <v>10.2282</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12122.9187</v>
+        <v>-12118.6592</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0591</v>
+        <v>0.0587</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>13.5994</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E14" s="1">
-        <v>12032.1444</v>
+        <v>12007.2157</v>
       </c>
       <c r="F14" s="1">
-        <v>-12032.1444</v>
+        <v>-12007.2157</v>
       </c>
       <c r="H14" s="1">
-        <v>163629.9443</v>
+        <v>162964.3334</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>163629.9443</v>
+        <v>162964.3334</v>
       </c>
       <c r="K14" s="1">
-        <v>125099.3298</v>
+        <v>125089.1025</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3971</v>
+        <v>10.4178</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4980.4668</v>
+        <v>4970.2694</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>168610.4111</v>
+        <v>167934.6029</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0819</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>8.6477</v>
       </c>
       <c r="C2" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D2" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="F3" s="1">
-        <v>933.7276000000001</v>
+        <v>940.2166</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>11065.2543</v>
+        <v>11021.1194</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11065.2543</v>
+        <v>11021.1194</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-8934.745699999999</v>
+        <v>-9014.8909</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1065</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E4" s="1">
-        <v>2090.1044</v>
+        <v>2094.2847</v>
       </c>
       <c r="F4" s="1">
-        <v>1091.4342</v>
+        <v>1093.6437</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19708.4304</v>
+        <v>19708.2661</v>
       </c>
       <c r="I4" s="1">
-        <v>1065.2543</v>
+        <v>985.1091</v>
       </c>
       <c r="J4" s="1">
-        <v>20773.6848</v>
+        <v>20693.3753</v>
       </c>
       <c r="K4" s="1">
-        <v>18934.7457</v>
+        <v>19014.8909</v>
       </c>
       <c r="L4" s="1">
-        <v>9.059200000000001</v>
+        <v>9.0794</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10291.5696</v>
+        <v>-10333.0736</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0138</v>
+        <v>-0.0156</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D5" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E5" s="1">
-        <v>3181.5386</v>
+        <v>3187.9284</v>
       </c>
       <c r="F5" s="1">
-        <v>983.4361</v>
+        <v>985.346</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30555.1785</v>
+        <v>30555.6559</v>
       </c>
       <c r="I5" s="1">
-        <v>773.6848</v>
+        <v>652.0356</v>
       </c>
       <c r="J5" s="1">
-        <v>31328.8633</v>
+        <v>31207.6915</v>
       </c>
       <c r="K5" s="1">
-        <v>29226.3152</v>
+        <v>29347.9644</v>
       </c>
       <c r="L5" s="1">
-        <v>9.186199999999999</v>
+        <v>9.206</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9444.919900000001</v>
+        <v>-9482.2799</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.018</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.3595</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E6" s="1">
-        <v>4164.9746</v>
+        <v>4173.2744</v>
       </c>
       <c r="F6" s="1">
-        <v>661.5131</v>
+        <v>662.8768</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>43147.0548</v>
+        <v>43146.6489</v>
       </c>
       <c r="I6" s="1">
-        <v>1328.7649</v>
+        <v>1169.7557</v>
       </c>
       <c r="J6" s="1">
-        <v>44475.8198</v>
+        <v>44316.4045</v>
       </c>
       <c r="K6" s="1">
-        <v>38671.2351</v>
+        <v>38830.2443</v>
       </c>
       <c r="L6" s="1">
-        <v>9.2849</v>
+        <v>9.304500000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6852.9452</v>
+        <v>-6880.8605</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0761</v>
+        <v>0.07539999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.0875</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E7" s="1">
-        <v>4826.4878</v>
+        <v>4836.1512</v>
       </c>
       <c r="F7" s="1">
-        <v>1121.4676</v>
+        <v>1123.7387</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48687.1953</v>
+        <v>48686.9849</v>
       </c>
       <c r="I7" s="1">
-        <v>4475.8198</v>
+        <v>4288.8951</v>
       </c>
       <c r="J7" s="1">
-        <v>53163.0151</v>
+        <v>52975.8801</v>
       </c>
       <c r="K7" s="1">
-        <v>45524.1802</v>
+        <v>45711.1049</v>
       </c>
       <c r="L7" s="1">
-        <v>9.4322</v>
+        <v>9.452</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11312.8047</v>
+        <v>-11358.4141</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0241</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>10.1692</v>
       </c>
       <c r="C8" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D8" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E8" s="1">
-        <v>5947.9554</v>
+        <v>5959.8899</v>
       </c>
       <c r="F8" s="1">
-        <v>935.5753</v>
+        <v>937.4093</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60485.948</v>
+        <v>60486.327</v>
       </c>
       <c r="I8" s="1">
-        <v>3163.0151</v>
+        <v>2930.481</v>
       </c>
       <c r="J8" s="1">
-        <v>63648.963</v>
+        <v>63416.8081</v>
       </c>
       <c r="K8" s="1">
-        <v>56836.9849</v>
+        <v>57069.519</v>
       </c>
       <c r="L8" s="1">
-        <v>9.5557</v>
+        <v>9.5756</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1303.1517</v>
+        <v>1305.7608</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8210.900299999999</v>
+        <v>-8246.064700000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0077</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.0872</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E9" s="1">
-        <v>6883.5307</v>
+        <v>6897.2992</v>
       </c>
       <c r="F9" s="1">
-        <v>331.9972</v>
+        <v>332.7053</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>76319.0811</v>
+        <v>76318.6158</v>
       </c>
       <c r="I9" s="1">
-        <v>4952.1147</v>
+        <v>4684.4163</v>
       </c>
       <c r="J9" s="1">
-        <v>81271.19590000001</v>
+        <v>81003.0321</v>
       </c>
       <c r="K9" s="1">
-        <v>66351.037</v>
+        <v>66621.34450000001</v>
       </c>
       <c r="L9" s="1">
-        <v>9.639099999999999</v>
+        <v>9.659000000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-3680.9189</v>
+        <v>-3696.1563</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1035</v>
+        <v>0.1033</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.0976</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D10" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E10" s="1">
-        <v>7215.5278</v>
+        <v>7230.0045</v>
       </c>
       <c r="F10" s="1">
-        <v>894.3338</v>
+        <v>896.1128</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80075.04150000001</v>
+        <v>80075.192</v>
       </c>
       <c r="I10" s="1">
-        <v>11271.1959</v>
+        <v>10988.26</v>
       </c>
       <c r="J10" s="1">
-        <v>91346.2374</v>
+        <v>91063.45209999999</v>
       </c>
       <c r="K10" s="1">
-        <v>70031.9558</v>
+        <v>70317.50079999999</v>
       </c>
       <c r="L10" s="1">
-        <v>9.7057</v>
+        <v>9.7258</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9924.958500000001</v>
+        <v>-9964.5954</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>10.8505</v>
       </c>
       <c r="C11" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D11" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E11" s="1">
-        <v>8109.8616</v>
+        <v>8126.1173</v>
       </c>
       <c r="F11" s="1">
-        <v>1106.3036</v>
+        <v>1108.5162</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87996.05319999999</v>
+        <v>87996.0995</v>
       </c>
       <c r="I11" s="1">
-        <v>11346.2374</v>
+        <v>11023.6647</v>
       </c>
       <c r="J11" s="1">
-        <v>99342.29059999999</v>
+        <v>99019.7641</v>
       </c>
       <c r="K11" s="1">
-        <v>79956.9143</v>
+        <v>80282.0962</v>
       </c>
       <c r="L11" s="1">
-        <v>9.8592</v>
+        <v>9.8795</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3246.9875</v>
+        <v>3253.502</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8756.9593</v>
+        <v>-8798.619000000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0198</v>
+        <v>-0.0202</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.8576</v>
       </c>
       <c r="C12" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D12" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E12" s="1">
-        <v>9216.165199999999</v>
+        <v>9234.633599999999</v>
       </c>
       <c r="F12" s="1">
-        <v>60.5856</v>
+        <v>60.6959</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>109281.5999</v>
+        <v>109281.7302</v>
       </c>
       <c r="I12" s="1">
-        <v>12589.2781</v>
+        <v>12225.0457</v>
       </c>
       <c r="J12" s="1">
-        <v>121870.878</v>
+        <v>121506.7759</v>
       </c>
       <c r="K12" s="1">
-        <v>91960.86109999999</v>
+        <v>92334.2172</v>
       </c>
       <c r="L12" s="1">
-        <v>9.978199999999999</v>
+        <v>9.998699999999999</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-718.4001</v>
+        <v>-721.1529</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1146</v>
+        <v>0.1145</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.5699</v>
       </c>
       <c r="C13" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D13" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E13" s="1">
-        <v>9276.7508</v>
+        <v>9295.3295</v>
       </c>
       <c r="F13" s="1">
-        <v>269.8646</v>
+        <v>270.387</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>116607.8296</v>
+        <v>116608.0498</v>
       </c>
       <c r="I13" s="1">
-        <v>21870.878</v>
+        <v>21503.8928</v>
       </c>
       <c r="J13" s="1">
-        <v>138478.7076</v>
+        <v>138111.9426</v>
       </c>
       <c r="K13" s="1">
-        <v>92679.26119999999</v>
+        <v>93055.37</v>
       </c>
       <c r="L13" s="1">
-        <v>9.990500000000001</v>
+        <v>10.011</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-3392.1704</v>
+        <v>-3405.5507</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0501</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>13.5994</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E14" s="1">
-        <v>9546.615299999999</v>
+        <v>9565.7165</v>
       </c>
       <c r="F14" s="1">
-        <v>-9546.615299999999</v>
+        <v>-9565.7165</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>129828.2405</v>
+        <v>129827.8171</v>
       </c>
       <c r="I14" s="1">
-        <v>28478.7076</v>
+        <v>28098.3421</v>
       </c>
       <c r="J14" s="1">
-        <v>158306.9481</v>
+        <v>157926.1592</v>
       </c>
       <c r="K14" s="1">
-        <v>96071.4316</v>
+        <v>96460.9207</v>
       </c>
       <c r="L14" s="1">
-        <v>10.0634</v>
+        <v>10.084</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4174.5378</v>
+        <v>4182.8983</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134002.7783</v>
+        <v>134010.7154</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.06619999999999999</v>
+        <v>0.0663</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>8.6477</v>
       </c>
       <c r="C2" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D2" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="F3" s="1">
-        <v>938.9528</v>
+        <v>945.4523</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>11065.2543</v>
+        <v>11021.1194</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11065.2543</v>
+        <v>11021.1194</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-8984.745699999999</v>
+        <v>-9065.091399999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1065</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E4" s="1">
-        <v>2095.3297</v>
+        <v>2099.5204</v>
       </c>
       <c r="F4" s="1">
-        <v>1102.1431</v>
+        <v>1104.3742</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19757.7015</v>
+        <v>19757.5368</v>
       </c>
       <c r="I4" s="1">
-        <v>1015.2543</v>
+        <v>934.9086</v>
       </c>
       <c r="J4" s="1">
-        <v>20772.9559</v>
+        <v>20692.4454</v>
       </c>
       <c r="K4" s="1">
-        <v>18984.7457</v>
+        <v>19065.0914</v>
       </c>
       <c r="L4" s="1">
-        <v>9.060499999999999</v>
+        <v>9.0807</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10392.5485</v>
+        <v>-10434.4585</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0139</v>
+        <v>-0.0156</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D5" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E5" s="1">
-        <v>3197.4728</v>
+        <v>3203.8946</v>
       </c>
       <c r="F5" s="1">
-        <v>998.8434</v>
+        <v>1000.7838</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30708.209</v>
+        <v>30708.6888</v>
       </c>
       <c r="I5" s="1">
-        <v>622.7059</v>
+        <v>500.4501</v>
       </c>
       <c r="J5" s="1">
-        <v>31330.9149</v>
+        <v>31209.1389</v>
       </c>
       <c r="K5" s="1">
-        <v>29377.2941</v>
+        <v>29499.5499</v>
       </c>
       <c r="L5" s="1">
-        <v>9.1877</v>
+        <v>9.2074</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9592.892099999999</v>
+        <v>-9630.8426</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0181</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.3595</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E6" s="1">
-        <v>4196.3162</v>
+        <v>4204.6784</v>
       </c>
       <c r="F6" s="1">
-        <v>678.6784</v>
+        <v>680.0768</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>43471.7378</v>
+        <v>43471.3287</v>
       </c>
       <c r="I6" s="1">
-        <v>1029.8137</v>
+        <v>869.6075</v>
       </c>
       <c r="J6" s="1">
-        <v>44501.5515</v>
+        <v>44340.9362</v>
       </c>
       <c r="K6" s="1">
-        <v>38970.1863</v>
+        <v>39130.3925</v>
       </c>
       <c r="L6" s="1">
-        <v>9.286799999999999</v>
+        <v>9.3064</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7030.7685</v>
+        <v>-7059.4007</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0767</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.0875</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E7" s="1">
-        <v>4874.9946</v>
+        <v>4884.7551</v>
       </c>
       <c r="F7" s="1">
-        <v>1147.8078</v>
+        <v>1150.132</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49176.5077</v>
+        <v>49176.2952</v>
       </c>
       <c r="I7" s="1">
-        <v>3999.0452</v>
+        <v>3810.2068</v>
       </c>
       <c r="J7" s="1">
-        <v>53175.553</v>
+        <v>52986.502</v>
       </c>
       <c r="K7" s="1">
-        <v>46000.9548</v>
+        <v>46189.7932</v>
       </c>
       <c r="L7" s="1">
-        <v>9.4361</v>
+        <v>9.4559</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11578.5111</v>
+        <v>-11625.1889</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0243</v>
+        <v>-0.0249</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>10.1692</v>
       </c>
       <c r="C8" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D8" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E8" s="1">
-        <v>6022.8024</v>
+        <v>6034.8871</v>
       </c>
       <c r="F8" s="1">
-        <v>964.846</v>
+        <v>966.7381</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61247.0817</v>
+        <v>61247.4656</v>
       </c>
       <c r="I8" s="1">
-        <v>2420.5342</v>
+        <v>2185.0179</v>
       </c>
       <c r="J8" s="1">
-        <v>63667.6159</v>
+        <v>63432.4835</v>
       </c>
       <c r="K8" s="1">
-        <v>57579.4658</v>
+        <v>57814.9821</v>
       </c>
       <c r="L8" s="1">
-        <v>9.5602</v>
+        <v>9.5801</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1316.2485</v>
+        <v>1318.8839</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8495.463599999999</v>
+        <v>-8531.7907</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0078</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.0872</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E9" s="1">
-        <v>6987.6484</v>
+        <v>7001.6252</v>
       </c>
       <c r="F9" s="1">
-        <v>355.4218</v>
+        <v>356.1776</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>77473.45510000001</v>
+        <v>77472.98269999999</v>
       </c>
       <c r="I9" s="1">
-        <v>3925.0706</v>
+        <v>3653.2272</v>
       </c>
       <c r="J9" s="1">
-        <v>81398.5257</v>
+        <v>81126.21000000001</v>
       </c>
       <c r="K9" s="1">
-        <v>67391.1779</v>
+        <v>67665.6566</v>
       </c>
       <c r="L9" s="1">
-        <v>9.644299999999999</v>
+        <v>9.664300000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-3940.6328</v>
+        <v>-3956.9194</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1049</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.0976</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D10" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E10" s="1">
-        <v>7343.0702</v>
+        <v>7357.8028</v>
       </c>
       <c r="F10" s="1">
-        <v>930.8952</v>
+        <v>932.7473</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>81490.4558</v>
+        <v>81490.609</v>
       </c>
       <c r="I10" s="1">
-        <v>9984.4378</v>
+        <v>9696.3078</v>
       </c>
       <c r="J10" s="1">
-        <v>91474.8936</v>
+        <v>91186.91680000001</v>
       </c>
       <c r="K10" s="1">
-        <v>71331.8107</v>
+        <v>71622.57610000001</v>
       </c>
       <c r="L10" s="1">
-        <v>9.7142</v>
+        <v>9.7342</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10330.7025</v>
+        <v>-10371.9633</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>10.8505</v>
       </c>
       <c r="C11" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D11" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E11" s="1">
-        <v>8273.965399999999</v>
+        <v>8290.5501</v>
       </c>
       <c r="F11" s="1">
-        <v>1152.3527</v>
+        <v>1154.6575</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89776.6614</v>
+        <v>89776.7086</v>
       </c>
       <c r="I11" s="1">
-        <v>9653.7353</v>
+        <v>9324.3446</v>
       </c>
       <c r="J11" s="1">
-        <v>99430.3968</v>
+        <v>99101.05319999999</v>
       </c>
       <c r="K11" s="1">
-        <v>81662.5132</v>
+        <v>81994.5393</v>
       </c>
       <c r="L11" s="1">
-        <v>9.8698</v>
+        <v>9.8901</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3304.3816</v>
+        <v>3311.0113</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9199.221100000001</v>
+        <v>-9242.7718</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0201</v>
+        <v>-0.0206</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.8576</v>
       </c>
       <c r="C12" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D12" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E12" s="1">
-        <v>9426.3181</v>
+        <v>9445.2076</v>
       </c>
       <c r="F12" s="1">
-        <v>85.8653</v>
+        <v>86.026</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>111773.509</v>
+        <v>111773.6422</v>
       </c>
       <c r="I12" s="1">
-        <v>10454.5143</v>
+        <v>10081.5728</v>
       </c>
       <c r="J12" s="1">
-        <v>122228.0233</v>
+        <v>121855.215</v>
       </c>
       <c r="K12" s="1">
-        <v>94166.1159</v>
+        <v>94548.3224</v>
       </c>
       <c r="L12" s="1">
-        <v>9.989699999999999</v>
+        <v>10.0102</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-1018.1564</v>
+        <v>-1022.1094</v>
       </c>
       <c r="Q12" s="3">
         <v>0.1169</v>
@@ -2801,34 +2801,34 @@
         <v>12.5699</v>
       </c>
       <c r="C13" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D13" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E13" s="1">
-        <v>9512.1834</v>
+        <v>9531.2336</v>
       </c>
       <c r="F13" s="1">
-        <v>301.389</v>
+        <v>301.9741</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>119567.1936</v>
+        <v>119567.4194</v>
       </c>
       <c r="I13" s="1">
-        <v>19436.3579</v>
+        <v>19059.4634</v>
       </c>
       <c r="J13" s="1">
-        <v>139003.5515</v>
+        <v>138626.8827</v>
       </c>
       <c r="K13" s="1">
-        <v>95184.2723</v>
+        <v>95570.43180000001</v>
       </c>
       <c r="L13" s="1">
-        <v>10.0066</v>
+        <v>10.0271</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-3788.4301</v>
+        <v>-3803.3937</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0512</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>13.5994</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E14" s="1">
-        <v>9813.572399999999</v>
+        <v>9833.207700000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9813.572399999999</v>
+        <v>-9833.207700000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>133458.6965</v>
+        <v>133458.2613</v>
       </c>
       <c r="I14" s="1">
-        <v>25647.9277</v>
+        <v>25256.0697</v>
       </c>
       <c r="J14" s="1">
-        <v>159106.6243</v>
+        <v>158714.331</v>
       </c>
       <c r="K14" s="1">
-        <v>98972.70239999999</v>
+        <v>99373.8254</v>
       </c>
       <c r="L14" s="1">
-        <v>10.0853</v>
+        <v>10.1059</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4280.4825</v>
+        <v>4289.0551</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137739.179</v>
+        <v>137747.3164</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0678</v>
+        <v>0.0679</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>8.6477</v>
       </c>
       <c r="C2" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D2" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="F3" s="1">
-        <v>944.1781</v>
+        <v>950.688</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>11065.2543</v>
+        <v>11021.1194</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11065.2543</v>
+        <v>11021.1194</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9034.745699999999</v>
+        <v>-9115.2919</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1065</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E4" s="1">
-        <v>2100.5549</v>
+        <v>2104.7561</v>
       </c>
       <c r="F4" s="1">
-        <v>1112.9051</v>
+        <v>1115.1578</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19806.9726</v>
+        <v>19806.8075</v>
       </c>
       <c r="I4" s="1">
-        <v>965.2542999999999</v>
+        <v>884.7080999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>20772.2269</v>
+        <v>20691.5156</v>
       </c>
       <c r="K4" s="1">
-        <v>19034.7457</v>
+        <v>19115.2919</v>
       </c>
       <c r="L4" s="1">
-        <v>9.0618</v>
+        <v>9.082000000000001</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10494.0274</v>
+        <v>-10536.3455</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0139</v>
+        <v>-0.0157</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D5" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E5" s="1">
-        <v>3213.46</v>
+        <v>3219.9139</v>
       </c>
       <c r="F5" s="1">
-        <v>1014.4068</v>
+        <v>1016.3779</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30861.7488</v>
+        <v>30862.231</v>
       </c>
       <c r="I5" s="1">
-        <v>471.2269</v>
+        <v>348.3626</v>
       </c>
       <c r="J5" s="1">
-        <v>31332.9757</v>
+        <v>31210.5936</v>
       </c>
       <c r="K5" s="1">
-        <v>29528.7731</v>
+        <v>29651.6374</v>
       </c>
       <c r="L5" s="1">
-        <v>9.1891</v>
+        <v>9.2088</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9742.3627</v>
+        <v>-9780.909600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0182</v>
+        <v>0.0169</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.3595</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E6" s="1">
-        <v>4227.8668</v>
+        <v>4236.2918</v>
       </c>
       <c r="F6" s="1">
-        <v>696.1208</v>
+        <v>697.5545</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>43798.5862</v>
+        <v>43798.174</v>
       </c>
       <c r="I6" s="1">
-        <v>728.8643</v>
+        <v>567.453</v>
       </c>
       <c r="J6" s="1">
-        <v>44527.4504</v>
+        <v>44365.6271</v>
       </c>
       <c r="K6" s="1">
-        <v>39271.1357</v>
+        <v>39432.547</v>
       </c>
       <c r="L6" s="1">
-        <v>9.288600000000001</v>
+        <v>9.308299999999999</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7211.4639</v>
+        <v>-7240.8246</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.07729999999999999</v>
+        <v>0.0766</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.0875</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E7" s="1">
-        <v>4923.9877</v>
+        <v>4933.8463</v>
       </c>
       <c r="F7" s="1">
-        <v>1174.6642</v>
+        <v>1177.0425</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49670.7255</v>
+        <v>49670.5108</v>
       </c>
       <c r="I7" s="1">
-        <v>3517.4003</v>
+        <v>3326.6285</v>
       </c>
       <c r="J7" s="1">
-        <v>53188.1258</v>
+        <v>52997.1393</v>
       </c>
       <c r="K7" s="1">
-        <v>46482.5997</v>
+        <v>46673.3715</v>
       </c>
       <c r="L7" s="1">
-        <v>9.44</v>
+        <v>9.4598</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11849.4251</v>
+        <v>-11897.1923</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0246</v>
+        <v>-0.0252</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>10.1692</v>
       </c>
       <c r="C8" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D8" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E8" s="1">
-        <v>6098.6519</v>
+        <v>6110.8888</v>
       </c>
       <c r="F8" s="1">
-        <v>994.8611</v>
+        <v>996.8128</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>62018.4105</v>
+        <v>62018.7991</v>
       </c>
       <c r="I8" s="1">
-        <v>1667.9752</v>
+        <v>1429.4362</v>
       </c>
       <c r="J8" s="1">
-        <v>63686.3856</v>
+        <v>63448.2353</v>
       </c>
       <c r="K8" s="1">
-        <v>58332.0248</v>
+        <v>58570.5638</v>
       </c>
       <c r="L8" s="1">
-        <v>9.5647</v>
+        <v>9.5846</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1329.4767</v>
+        <v>1332.1385</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8787.465</v>
+        <v>-8824.9848</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.007900000000000001</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>11.0872</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E9" s="1">
-        <v>7093.513</v>
+        <v>7107.7015</v>
       </c>
       <c r="F9" s="1">
-        <v>379.6728</v>
+        <v>380.4779</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>78647.197</v>
+        <v>78646.7175</v>
       </c>
       <c r="I9" s="1">
-        <v>2880.5102</v>
+        <v>2604.4514</v>
       </c>
       <c r="J9" s="1">
-        <v>81527.7072</v>
+        <v>81251.1689</v>
       </c>
       <c r="K9" s="1">
-        <v>68448.96649999999</v>
+        <v>68727.6871</v>
       </c>
       <c r="L9" s="1">
-        <v>9.6495</v>
+        <v>9.669499999999999</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-4209.5086</v>
+        <v>-4226.8814</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1064</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.0976</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D10" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E10" s="1">
-        <v>7473.1858</v>
+        <v>7488.1795</v>
       </c>
       <c r="F10" s="1">
-        <v>968.7541</v>
+        <v>970.6819</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>82934.4268</v>
+        <v>82934.5827</v>
       </c>
       <c r="I10" s="1">
-        <v>8671.0016</v>
+        <v>8377.570100000001</v>
       </c>
       <c r="J10" s="1">
-        <v>91605.4283</v>
+        <v>91312.1528</v>
       </c>
       <c r="K10" s="1">
-        <v>72658.4751</v>
+        <v>72954.5684</v>
       </c>
       <c r="L10" s="1">
-        <v>9.7226</v>
+        <v>9.742599999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10750.8459</v>
+        <v>-10793.7883</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>10.8505</v>
       </c>
       <c r="C11" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D11" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E11" s="1">
-        <v>8441.939899999999</v>
+        <v>8458.8613</v>
       </c>
       <c r="F11" s="1">
-        <v>1200.2079</v>
+        <v>1202.6086</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91599.2693</v>
+        <v>91599.3175</v>
       </c>
       <c r="I11" s="1">
-        <v>7920.1557</v>
+        <v>7583.7818</v>
       </c>
       <c r="J11" s="1">
-        <v>99519.425</v>
+        <v>99183.0993</v>
       </c>
       <c r="K11" s="1">
-        <v>83409.321</v>
+        <v>83748.3567</v>
       </c>
       <c r="L11" s="1">
-        <v>9.8803</v>
+        <v>9.900700000000001</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3362.9336</v>
+        <v>3369.6808</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9659.922500000001</v>
+        <v>-9705.4406</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0205</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.8576</v>
       </c>
       <c r="C12" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D12" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E12" s="1">
-        <v>9642.1479</v>
+        <v>9661.4699</v>
       </c>
       <c r="F12" s="1">
-        <v>112.6378</v>
+        <v>112.8519</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>114332.7325</v>
+        <v>114332.8688</v>
       </c>
       <c r="I12" s="1">
-        <v>8260.233200000001</v>
+        <v>7878.3412</v>
       </c>
       <c r="J12" s="1">
-        <v>122592.9657</v>
+        <v>122211.21</v>
       </c>
       <c r="K12" s="1">
-        <v>96432.1771</v>
+        <v>96823.47809999999</v>
       </c>
       <c r="L12" s="1">
-        <v>10.0011</v>
+        <v>10.0216</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-1335.6141</v>
+        <v>-1340.8383</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1194</v>
+        <v>0.1193</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.5699</v>
       </c>
       <c r="C13" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D13" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E13" s="1">
-        <v>9754.7857</v>
+        <v>9774.3218</v>
       </c>
       <c r="F13" s="1">
-        <v>334.7958</v>
+        <v>335.4472</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>122616.6805</v>
+        <v>122616.912</v>
       </c>
       <c r="I13" s="1">
-        <v>16924.619</v>
+        <v>16537.5029</v>
       </c>
       <c r="J13" s="1">
-        <v>139541.2996</v>
+        <v>139154.4149</v>
       </c>
       <c r="K13" s="1">
-        <v>97767.79120000001</v>
+        <v>98164.3164</v>
       </c>
       <c r="L13" s="1">
-        <v>10.0225</v>
+        <v>10.0431</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4208.3496</v>
+        <v>-4224.9911</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0524</v>
+        <v>0.0525</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,46 +3622,46 @@
         <v>13.5994</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E14" s="1">
-        <v>10089.5815</v>
+        <v>10109.769</v>
       </c>
       <c r="F14" s="1">
-        <v>-10089.5815</v>
+        <v>-10109.769</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>137212.2543</v>
+        <v>137211.8068</v>
       </c>
       <c r="I14" s="1">
-        <v>22716.2694</v>
+        <v>22312.5118</v>
       </c>
       <c r="J14" s="1">
-        <v>159928.5237</v>
+        <v>159524.3186</v>
       </c>
       <c r="K14" s="1">
-        <v>101976.1409</v>
+        <v>102389.3075</v>
       </c>
       <c r="L14" s="1">
-        <v>10.1071</v>
+        <v>10.1278</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4389.6536</v>
+        <v>4398.4448</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>141601.9078</v>
+        <v>141610.2516</v>
       </c>
       <c r="Q14" s="3">
         <v>0.06950000000000001</v>
@@ -3760,16 +3760,16 @@
         <v>8.6477</v>
       </c>
       <c r="C2" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D2" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="F3" s="1">
-        <v>949.4032999999999</v>
+        <v>955.9237000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>11065.2543</v>
+        <v>11021.1194</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11065.2543</v>
+        <v>11021.1194</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9084.745699999999</v>
+        <v>-9165.492399999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1065</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E4" s="1">
-        <v>2105.7802</v>
+        <v>2109.9918</v>
       </c>
       <c r="F4" s="1">
-        <v>1123.7201</v>
+        <v>1125.9946</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19856.2437</v>
+        <v>19856.0781</v>
       </c>
       <c r="I4" s="1">
-        <v>915.2542999999999</v>
+        <v>834.5076</v>
       </c>
       <c r="J4" s="1">
-        <v>20771.498</v>
+        <v>20690.5857</v>
       </c>
       <c r="K4" s="1">
-        <v>19084.7457</v>
+        <v>19165.4924</v>
       </c>
       <c r="L4" s="1">
-        <v>9.063000000000001</v>
+        <v>9.0832</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10596.0063</v>
+        <v>-10638.7345</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0139</v>
+        <v>-0.0157</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D5" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E5" s="1">
-        <v>3229.5003</v>
+        <v>3235.9864</v>
       </c>
       <c r="F5" s="1">
-        <v>1030.1269</v>
+        <v>1032.1291</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31015.7978</v>
+        <v>31016.2824</v>
       </c>
       <c r="I5" s="1">
-        <v>319.248</v>
+        <v>195.7731</v>
       </c>
       <c r="J5" s="1">
-        <v>31335.0458</v>
+        <v>31212.0555</v>
       </c>
       <c r="K5" s="1">
-        <v>29680.752</v>
+        <v>29804.2269</v>
       </c>
       <c r="L5" s="1">
-        <v>9.1905</v>
+        <v>9.2102</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9893.339</v>
+        <v>-9932.488300000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0183</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.3595</v>
       </c>
       <c r="C6" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D6" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E6" s="1">
-        <v>4259.6272</v>
+        <v>4268.1155</v>
       </c>
       <c r="F6" s="1">
-        <v>713.8434</v>
+        <v>715.3128</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>44127.6081</v>
+        <v>44127.1929</v>
       </c>
       <c r="I6" s="1">
-        <v>425.909</v>
+        <v>263.2848</v>
       </c>
       <c r="J6" s="1">
-        <v>44553.5171</v>
+        <v>44390.4777</v>
       </c>
       <c r="K6" s="1">
-        <v>39574.091</v>
+        <v>39736.7152</v>
       </c>
       <c r="L6" s="1">
-        <v>9.2905</v>
+        <v>9.3101</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7395.0612</v>
+        <v>-7425.1619</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0779</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.0875</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E7" s="1">
-        <v>4973.4707</v>
+        <v>4983.4284</v>
       </c>
       <c r="F7" s="1">
-        <v>1202.0445</v>
+        <v>1204.4779</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50169.8852</v>
+        <v>50169.6685</v>
       </c>
       <c r="I7" s="1">
-        <v>3030.8479</v>
+        <v>2838.1229</v>
       </c>
       <c r="J7" s="1">
-        <v>53200.7331</v>
+        <v>53007.7914</v>
       </c>
       <c r="K7" s="1">
-        <v>46969.1521</v>
+        <v>47161.8771</v>
       </c>
       <c r="L7" s="1">
-        <v>9.443899999999999</v>
+        <v>9.463699999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-12125.6241</v>
+        <v>-12174.5018</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0248</v>
+        <v>-0.0254</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>10.1692</v>
       </c>
       <c r="C8" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D8" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E8" s="1">
-        <v>6175.5152</v>
+        <v>6187.9063</v>
       </c>
       <c r="F8" s="1">
-        <v>1025.6356</v>
+        <v>1027.6483</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62800.0489</v>
+        <v>62800.4425</v>
       </c>
       <c r="I8" s="1">
-        <v>905.2238</v>
+        <v>663.6212</v>
       </c>
       <c r="J8" s="1">
-        <v>63705.2727</v>
+        <v>63464.0636</v>
       </c>
       <c r="K8" s="1">
-        <v>59094.7762</v>
+        <v>59336.3788</v>
       </c>
       <c r="L8" s="1">
-        <v>9.5692</v>
+        <v>9.5891</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1342.8371</v>
+        <v>1345.5257</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9087.056</v>
+        <v>-9125.7991</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.008</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.0872</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E9" s="1">
-        <v>7201.1507</v>
+        <v>7215.5546</v>
       </c>
       <c r="F9" s="1">
-        <v>404.7724</v>
+        <v>405.6285</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>79840.5983</v>
+        <v>79840.1115</v>
       </c>
       <c r="I9" s="1">
-        <v>1818.1678</v>
+        <v>1537.8221</v>
       </c>
       <c r="J9" s="1">
-        <v>81658.76609999999</v>
+        <v>81377.9336</v>
       </c>
       <c r="K9" s="1">
-        <v>69524.6692</v>
+        <v>69807.70359999999</v>
       </c>
       <c r="L9" s="1">
-        <v>9.6547</v>
+        <v>9.6746</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-4487.7928</v>
+        <v>-4506.2895</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1079</v>
+        <v>0.1077</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.0976</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D10" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E10" s="1">
-        <v>7605.9231</v>
+        <v>7621.1831</v>
       </c>
       <c r="F10" s="1">
-        <v>1007.9499</v>
+        <v>1009.9559</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84407.4927</v>
+        <v>84407.6514</v>
       </c>
       <c r="I10" s="1">
-        <v>7330.3751</v>
+        <v>7031.5326</v>
       </c>
       <c r="J10" s="1">
-        <v>91737.8677</v>
+        <v>91439.18399999999</v>
       </c>
       <c r="K10" s="1">
-        <v>74012.462</v>
+        <v>74313.99310000001</v>
       </c>
       <c r="L10" s="1">
-        <v>9.7309</v>
+        <v>9.750999999999999</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11185.8243</v>
+        <v>-11230.5076</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0009</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>10.8505</v>
       </c>
       <c r="C11" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D11" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E11" s="1">
-        <v>8613.873</v>
+        <v>8631.138999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1249.9321</v>
+        <v>1252.4323</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>93464.82889999999</v>
+        <v>93464.8781</v>
       </c>
       <c r="I11" s="1">
-        <v>6144.5508</v>
+        <v>5801.025</v>
       </c>
       <c r="J11" s="1">
-        <v>99609.3797</v>
+        <v>99265.90300000001</v>
       </c>
       <c r="K11" s="1">
-        <v>85198.28630000001</v>
+        <v>85544.5007</v>
       </c>
       <c r="L11" s="1">
-        <v>9.8908</v>
+        <v>9.911099999999999</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3422.6654</v>
+        <v>3429.5324</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10139.7224</v>
+        <v>-10187.287</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0209</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.8576</v>
       </c>
       <c r="C12" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D12" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E12" s="1">
-        <v>9863.805</v>
+        <v>9883.5713</v>
       </c>
       <c r="F12" s="1">
-        <v>140.9704</v>
+        <v>141.2409</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>116961.0547</v>
+        <v>116961.1942</v>
       </c>
       <c r="I12" s="1">
-        <v>6004.8284</v>
+        <v>5613.738</v>
       </c>
       <c r="J12" s="1">
-        <v>122965.8832</v>
+        <v>122574.9321</v>
       </c>
       <c r="K12" s="1">
-        <v>98760.674</v>
+        <v>99161.3201</v>
       </c>
       <c r="L12" s="1">
-        <v>10.0124</v>
+        <v>10.0329</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-1671.5702</v>
+        <v>-1678.1397</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1219</v>
+        <v>0.1218</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.5699</v>
       </c>
       <c r="C13" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D13" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E13" s="1">
-        <v>10004.7754</v>
+        <v>10024.8122</v>
       </c>
       <c r="F13" s="1">
-        <v>370.177</v>
+        <v>370.8987</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>125759.0265</v>
+        <v>125759.2639</v>
       </c>
       <c r="I13" s="1">
-        <v>14333.2583</v>
+        <v>13935.5983</v>
       </c>
       <c r="J13" s="1">
-        <v>140092.2847</v>
+        <v>139694.8622</v>
       </c>
       <c r="K13" s="1">
-        <v>100432.2442</v>
+        <v>100839.4598</v>
       </c>
       <c r="L13" s="1">
-        <v>10.0384</v>
+        <v>10.059</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4653.0878</v>
+        <v>-4671.5066</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0536</v>
+        <v>0.0537</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,46 +4390,46 @@
         <v>13.5994</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E14" s="1">
-        <v>10374.9524</v>
+        <v>10395.7109</v>
       </c>
       <c r="F14" s="1">
-        <v>-10374.9524</v>
+        <v>-10395.7109</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>141093.1278</v>
+        <v>141092.6677</v>
       </c>
       <c r="I14" s="1">
-        <v>19680.1704</v>
+        <v>19264.0917</v>
       </c>
       <c r="J14" s="1">
-        <v>160773.2982</v>
+        <v>160356.7594</v>
       </c>
       <c r="K14" s="1">
-        <v>105085.3321</v>
+        <v>105510.9664</v>
       </c>
       <c r="L14" s="1">
-        <v>10.1288</v>
+        <v>10.1495</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4502.1489</v>
+        <v>4511.1655</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>145595.2768</v>
+        <v>145603.8332</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0712</v>
@@ -4450,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3971</v>
+        <v>10.4178</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0634</v>
+        <v>10.084</v>
       </c>
       <c r="E3" s="1">
-        <v>10.0853</v>
+        <v>10.1059</v>
       </c>
       <c r="F3" s="1">
-        <v>10.1071</v>
+        <v>10.1278</v>
       </c>
       <c r="G3" s="1">
-        <v>10.1288</v>
+        <v>10.1495</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.4747</v>
       </c>
       <c r="C4" s="3">
-        <v>0.5263</v>
+        <v>0.5138</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4859</v>
+        <v>0.4758</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4926</v>
+        <v>0.4824</v>
       </c>
       <c r="F4" s="3">
-        <v>0.4994</v>
+        <v>0.4891</v>
       </c>
       <c r="G4" s="3">
-        <v>0.5064</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1663</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1852</v>
+        <v>0.1845</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1725</v>
+        <v>0.1719</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1747</v>
+        <v>0.1741</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1769</v>
+        <v>0.1764</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1792</v>
+        <v>0.1788</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>2.7328</v>
       </c>
       <c r="C6" s="4">
-        <v>2.7316</v>
+        <v>2.6742</v>
       </c>
       <c r="D6" s="4">
-        <v>2.6991</v>
+        <v>2.6498</v>
       </c>
       <c r="E6" s="4">
-        <v>2.7038</v>
+        <v>2.6538</v>
       </c>
       <c r="F6" s="4">
-        <v>2.7082</v>
+        <v>2.6574</v>
       </c>
       <c r="G6" s="4">
-        <v>2.7124</v>
+        <v>2.6608</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.8335</v>
+        <v>0.8209</v>
       </c>
       <c r="D7" s="3">
-        <v>0.8174</v>
+        <v>0.8062</v>
       </c>
       <c r="E7" s="3">
-        <v>0.8202</v>
+        <v>0.8089</v>
       </c>
       <c r="F7" s="3">
-        <v>0.823</v>
+        <v>0.8116</v>
       </c>
       <c r="G7" s="3">
-        <v>0.8259</v>
+        <v>0.8144</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>10079.7966</v>
+        <v>10059.372</v>
       </c>
       <c r="D8" s="1">
-        <v>8724.677100000001</v>
+        <v>8742.161099999999</v>
       </c>
       <c r="E8" s="1">
-        <v>8901.1126</v>
+        <v>8918.9503</v>
       </c>
       <c r="F8" s="1">
-        <v>9082.0638</v>
+        <v>9100.2641</v>
       </c>
       <c r="G8" s="1">
-        <v>9267.651400000001</v>
+        <v>9286.2235</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P6_KFSDIV.xlsx
+++ b/output/1Y_P6_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>10232.8172</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.3019</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.6445</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.6045</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5654</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.5272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
